--- a/data/electrical_pulp_2024-09-16.xlsx
+++ b/data/electrical_pulp_2024-09-16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects01/_uic/_dentalPulp/_dental_ept/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A88F29-8BD6-6046-8511-D9EED82E9F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C6A36-C55C-184D-9616-5700563C6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="4020" windowWidth="39380" windowHeight="21140" activeTab="1" xr2:uid="{417E1520-0CB9-EB4F-B0AC-2B8135F03933}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>sample</t>
   </si>
   <si>
-    <t>case-control</t>
-  </si>
-  <si>
     <t>digitized figure</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Parkell Gentle-Pulse</t>
+  </si>
+  <si>
+    <t>Case-control</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -381,13 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -754,7 +754,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
@@ -985,7 +985,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1008,7 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>53</v>
@@ -1041,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1101,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>53</v>
@@ -1405,15 +1405,15 @@
         <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -1435,15 +1435,15 @@
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -1459,21 +1459,21 @@
         <v>2</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" s="7">
-        <f>F4/(F4+G4)</f>
+        <f t="shared" ref="E4:E9" si="0">F4/(F4+G4)</f>
         <v>1</v>
       </c>
       <c r="F4" s="6">
@@ -1483,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="7">
-        <f>F5/(F5+G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="6">
@@ -1507,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="E6" s="7">
-        <f>F6/(F6+G6)</f>
+        <f t="shared" si="0"/>
         <v>0.9152542372881356</v>
       </c>
       <c r="F6" s="6">
@@ -1533,16 +1533,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="7">
-        <f>F7/(F7+G7)</f>
+        <f t="shared" si="0"/>
         <v>0.55789473684210522</v>
       </c>
       <c r="F7" s="6">
@@ -1552,15 +1552,15 @@
         <v>42</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="7">
-        <f>F8/(F8+G8)</f>
+        <f t="shared" si="0"/>
         <v>0.55789473684210522</v>
       </c>
       <c r="F8" s="6">
@@ -1575,13 +1575,13 @@
         <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7">
-        <f>F9/(F9+G9)</f>
+        <f t="shared" si="0"/>
         <v>0.75862068965517238</v>
       </c>
       <c r="F9" s="6">

--- a/data/electrical_pulp_2024-09-16.xlsx
+++ b/data/electrical_pulp_2024-09-16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgrant/Documents/_projects01/_uic/_dentalPulp/_dental_ept/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754C6A36-C55C-184D-9616-5700563C6BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F690BF-B034-794A-A549-C20A3E5911D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="4020" windowWidth="39380" windowHeight="21140" activeTab="1" xr2:uid="{417E1520-0CB9-EB4F-B0AC-2B8135F03933}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Parkell Digitest</t>
   </si>
   <si>
-    <t>Villa-Chaves et al 2013</t>
-  </si>
-  <si>
     <t>Weisleder et al 2009</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>Case-control</t>
+  </si>
+  <si>
+    <t>Villa-Chavez et al 2013</t>
   </si>
 </sst>
 </file>
@@ -751,13 +751,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -985,7 +985,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,13 +1005,13 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>23</v>
@@ -1041,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1049,10 +1049,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1079,7 +1079,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -1101,13 +1101,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -1140,7 +1140,7 @@
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1148,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1253,16 +1253,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
@@ -1372,13 +1372,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>23</v>
@@ -1405,15 +1405,15 @@
         <v>32</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -1435,15 +1435,15 @@
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -1459,18 +1459,18 @@
         <v>2</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E9" si="0">F4/(F4+G4)</f>
@@ -1483,15 +1483,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
@@ -1507,18 +1507,18 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -1552,12 +1552,12 @@
         <v>42</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
@@ -1575,10 +1575,10 @@
         <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
